--- a/config_12.14/activity_ty_task_config.xlsx
+++ b/config_12.14/activity_ty_task_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="748">
   <si>
     <t>index|索引</t>
   </si>
@@ -2713,6 +2713,40 @@
   </si>
   <si>
     <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>1</t>
     </r>
     <r>
@@ -2724,7 +2758,821 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000000,</t>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_yjshl</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>yjshl_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>赢金送豪礼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>赢金送豪礼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>68,169,170,171,172,173,174,175,176</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_gqfl_hlttby</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_gqfl_byam</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_gqfl_cjj</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gqfl_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>早餐福利（9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:00-10:00在线)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>午餐福利（12:00-13:00在线)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚餐福利（18:00-19:00在线)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>link|链接</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://cwww.game3396.com/webpages/hlbyDownload.html?platform=byam&amp;market_channel=byam&amp;pageType=byam&amp;category=1",</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://cwww.game3396.com/webpages/hlbyDownload.html?platform=normal&amp;market_channel=normal&amp;pageType=normal&amp;category=1",</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请重新登陆游戏",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"no_goto_ui","请重新登陆游戏",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载并登陆新游”捕鱼奥秘“</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载并登陆新游“欢乐天天捕鱼”</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载并登陆新游”欢乐天天捕鱼“</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_gqfl_all_nor</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>online</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与1次苹果大战</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计猜中1次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计猜中5次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计猜中10次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>177,183,184,185,186</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>178,183,184,185,186</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,183,184,185,186</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>183,184,185,186</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳福利</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金10万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金30万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金50万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金80万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金100万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金200万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金350万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金900万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1800万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金3000万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金5000万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金9000万</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1.5亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金2.5亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金4.5亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金7.5亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金10亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金15亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金30亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金50亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金100亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金300亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金600亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1000亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1500亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金2000亿</t>
+  </si>
+  <si>
+    <t>任意游戏累计赢金1万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意游戏累计赢金5万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50000000000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000000000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值8元</t>
+  </si>
+  <si>
+    <t>累计充值40元</t>
+  </si>
+  <si>
+    <t>累计充值100元</t>
+  </si>
+  <si>
+    <t>累计充值200元</t>
+  </si>
+  <si>
+    <t>累计充值400元</t>
+  </si>
+  <si>
+    <t>累计充值900元</t>
+  </si>
+  <si>
+    <t>累计充值1500元</t>
+  </si>
+  <si>
+    <t>累计充值2000元</t>
+  </si>
+  <si>
+    <t>累计充值2800元</t>
+  </si>
+  <si>
+    <t>累计充值4000元</t>
+  </si>
+  <si>
+    <t>累计充值6500元</t>
+  </si>
+  <si>
+    <t>累计充值8000元</t>
+  </si>
+  <si>
+    <t>累计充值12000元</t>
+  </si>
+  <si>
+    <t>累计充值16000元</t>
+  </si>
+  <si>
+    <t>累计充值20000元</t>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>800</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2741,7 +3589,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000000,</t>
+      <t>0,</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2758,7 +3606,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>000000,</t>
+      <t>0,</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2775,12 +3623,284 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>600,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>0000,</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>2</t>
     </r>
     <r>
@@ -2792,7 +3912,296 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0000,</t>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>800,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20000,</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2801,19 +4210,19 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>act_yjshl</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>yjshl_bg_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>赢金送豪礼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>赢金送豪礼</t>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -2829,53 +4238,1006 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>68,169,170,171,172,173,174,175,176</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_gqfl_hlttby</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_gqfl_byam</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_gqfl_cjj</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>gqfl_bg_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>早餐福利（9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:00-10:00在线)</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>午餐福利（12:00-13:00在线)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚餐福利（18:00-19:00在线)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>link|链接</t>
+      <t>87,188,189,190,191,192,193,194,195,196,197,198,199,200,201,202,203,204,205,206,207,208,209,210,211,212,213,214</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>189,190,191,192,193,194,195,196,197,198,199,200,201,202,203,204,205,206,207,208,209,210,211,212,213,214</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15,216,217,218,219,220,221,222,223,224,225,226,227,228,229</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂返利（新用户）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂返利</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂返利</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>fkfl_bg_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_fkfl_new</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_fkfl_not_new</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_fkfl_not_new_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录一次游戏</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D捕鱼中捕获10条鱼</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获30条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获50条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获100条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计猜中1次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计猜中5次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计猜中10次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计猜中20次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值任意金额1次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_MiniGame",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除30个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除50个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除100个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_task_nor</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>fkfl_bg_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达300万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达500万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达1000万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日福利</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获20条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获30条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获100条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获200条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除10个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除10个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除20个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除30个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除50个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除100个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除200个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值任意金额1次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值任意金额1次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","可以在小游戏苹果大战中使用",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>230,231,232,233,234,235,236,237,238,239,240</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>241,242,243,244,245,246,247,248,249,250,251</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值100元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值200元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值300元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值800元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值1200元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值1500元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值2000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,20000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,100000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000,200000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000,300000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,500000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>800000,800000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200000,1000000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500000,1500000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,2000000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","可以在小游戏苹果大战中使用",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -2891,2426 +5253,47 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>http://cwww.game3396.com/webpages/hlbyDownload.html?platform=byam&amp;market_channel=byam&amp;pageType=byam&amp;category=1",</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http://cwww.game3396.com/webpages/hlbyDownload.html?platform=normal&amp;market_channel=normal&amp;pageType=normal&amp;category=1",</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"no_goto_ui","请重新登陆游戏",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"no_goto_ui","请重新登陆游戏",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载并登陆新游”捕鱼奥秘“</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载并登陆新游“欢乐天天捕鱼”</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载并登陆新游”欢乐天天捕鱼“</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_gqfl_all_nor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>online</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与1次苹果大战</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计猜中1次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计猜中5次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计猜中10次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>177,183,184,185,186</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>178,183,184,185,186</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>179,183,184,185,186</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>183,184,185,186</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳福利</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金10万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金30万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金50万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金80万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金100万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金200万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金350万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金900万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金1800万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金3000万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金5000万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金9000万</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金1.5亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金2.5亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金4.5亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金7.5亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金10亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金15亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金30亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金50亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金100亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金300亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金600亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金1000亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金1500亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金2000亿</t>
-  </si>
-  <si>
-    <t>任意游戏累计赢金1万</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意游戏累计赢金5万</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50000000000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000000000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值8元</t>
-  </si>
-  <si>
-    <t>累计充值40元</t>
-  </si>
-  <si>
-    <t>累计充值100元</t>
-  </si>
-  <si>
-    <t>累计充值200元</t>
-  </si>
-  <si>
-    <t>累计充值400元</t>
-  </si>
-  <si>
-    <t>累计充值900元</t>
-  </si>
-  <si>
-    <t>累计充值1500元</t>
-  </si>
-  <si>
-    <t>累计充值2000元</t>
-  </si>
-  <si>
-    <t>累计充值2800元</t>
-  </si>
-  <si>
-    <t>累计充值4000元</t>
-  </si>
-  <si>
-    <t>累计充值6500元</t>
-  </si>
-  <si>
-    <t>累计充值8000元</t>
-  </si>
-  <si>
-    <t>累计充值12000元</t>
-  </si>
-  <si>
-    <t>累计充值16000元</t>
-  </si>
-  <si>
-    <t>累计充值20000元</t>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>800</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>80,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>40,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>400,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>600,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>400,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>400,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>800,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>87,188,189,190,191,192,193,194,195,196,197,198,199,200,201,202,203,204,205,206,207,208,209,210,211,212,213,214</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>189,190,191,192,193,194,195,196,197,198,199,200,201,202,203,204,205,206,207,208,209,210,211,212,213,214</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15,216,217,218,219,220,221,222,223,224,225,226,227,228,229</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂返利（新用户）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂返利</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂返利</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>fkfl_bg_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_fkfl_new</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_fkfl_not_new</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_fkfl_not_new_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录一次游戏</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D捕鱼中捕获10条鱼</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中捕获30条鱼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中捕获50条鱼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中捕获100条鱼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_web_chip_huafei",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计猜中1次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计猜中5次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计猜中10次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在苹果大战中累计猜中20次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值任意金额1次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_MiniGame",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除30个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除50个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除100个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_task_nor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+      <t>",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"","可以在小游戏苹果大战中使用",</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,5000000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>96,97,98,99,100,101,102,103,104,270</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","obj_5_coupon",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","obj_10_coupon",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","obj_20_coupon",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","obj_50_coupon",</t>
   </si>
   <si>
     <t>"shop_gold_sum",</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>fkfl_bg_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意消消乐游戏单笔赢金到达300万</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意消消乐游戏单笔赢金到达500万</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意消消乐游戏单笔赢金到达1000万</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日福利</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中捕获20条鱼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中捕获30条鱼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中捕获100条鱼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中捕获200条鱼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除10个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除10个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除20个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除30个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除50个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除100个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除200个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值任意金额1次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值任意金额1次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum","prop_guess_apple_bet_1",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_1",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum","prop_guess_apple_bet_1",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_1",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,1,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","可以在小游戏苹果大战中使用",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>230,231,232,233,234,235,236,237,238,239,240</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>241,242,243,244,245,246,247,248,249,250,251</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值100元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值200元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值300元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值800元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值1200元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值1500元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值2000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000,20000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,100000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000,200000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>300000,300000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000,500000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>800000,800000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200000,1000000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500000,1500000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,2000000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","可以在小游戏苹果大战中使用",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"","可以在小游戏苹果大战中使用",</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000,5000000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>96,97,98,99,100,101,102,103,104,270</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","obj_5_coupon",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","obj_10_coupon",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","obj_20_coupon",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","obj_50_coupon",</t>
   </si>
 </sst>
 </file>
@@ -5946,8 +5929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6163,13 +6146,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C12" s="38" t="s">
         <v>198</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -6186,7 +6169,7 @@
         <v>199</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -6231,13 +6214,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="C16" s="38" t="s">
         <v>443</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="D16" s="38" t="s">
         <v>444</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>445</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -6248,13 +6231,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -6265,13 +6248,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -6282,13 +6265,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="C19" s="38" t="s">
         <v>450</v>
       </c>
-      <c r="C19" s="38" t="s">
-        <v>451</v>
-      </c>
       <c r="D19" s="38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -6299,13 +6282,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -6316,13 +6299,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E21" s="65">
         <v>20</v>
@@ -6333,13 +6316,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E22" s="65">
         <v>21</v>
@@ -6350,13 +6333,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -6374,7 +6357,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6633,7 +6616,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -6653,7 +6636,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -6693,7 +6676,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -6701,19 +6684,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="44" t="s">
         <v>446</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="44" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -6721,7 +6704,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -6733,7 +6716,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="44" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -6741,7 +6724,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -6753,7 +6736,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -6761,7 +6744,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -6773,7 +6756,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -6781,7 +6764,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -6793,7 +6776,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -6801,7 +6784,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -6813,7 +6796,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -6821,7 +6804,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -6833,7 +6816,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="44" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -6841,7 +6824,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -6853,7 +6836,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="44" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -6867,9 +6850,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G274" sqref="G274"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A169" sqref="A169:XFD177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6925,10 +6908,10 @@
         <v>51</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>52</v>
@@ -9727,7 +9710,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="41" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H95" s="41" t="s">
         <v>286</v>
@@ -9774,7 +9757,7 @@
         <v>1000737</v>
       </c>
       <c r="C97" s="66" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D97" s="41" t="s">
         <v>292</v>
@@ -9786,10 +9769,10 @@
         <v>1</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H97" s="41" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="I97" s="41" t="s">
         <v>296</v>
@@ -9797,7 +9780,7 @@
       <c r="J97" s="41"/>
       <c r="K97" s="41"/>
       <c r="L97" s="41" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="98" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -9808,10 +9791,10 @@
         <v>1000737</v>
       </c>
       <c r="C98" s="66" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D98" s="41" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E98" s="13">
         <v>2</v>
@@ -9820,10 +9803,10 @@
         <v>1</v>
       </c>
       <c r="G98" s="41" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="H98" s="41" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="I98" s="41" t="s">
         <v>296</v>
@@ -9839,10 +9822,10 @@
         <v>1000737</v>
       </c>
       <c r="C99" s="66" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D99" s="41" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E99" s="13">
         <v>3</v>
@@ -9851,10 +9834,10 @@
         <v>1</v>
       </c>
       <c r="G99" s="41" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="H99" s="41" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="I99" s="41" t="s">
         <v>296</v>
@@ -9870,10 +9853,10 @@
         <v>1000737</v>
       </c>
       <c r="C100" s="66" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D100" s="41" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E100" s="13">
         <v>4</v>
@@ -9882,10 +9865,10 @@
         <v>1</v>
       </c>
       <c r="G100" s="41" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="H100" s="41" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I100" s="41" t="s">
         <v>296</v>
@@ -9901,7 +9884,7 @@
         <v>1000737</v>
       </c>
       <c r="C101" s="66" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D101" s="41" t="s">
         <v>293</v>
@@ -9913,10 +9896,10 @@
         <v>1</v>
       </c>
       <c r="G101" s="41" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="H101" s="41" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="I101" s="41" t="s">
         <v>296</v>
@@ -9932,10 +9915,10 @@
         <v>1000737</v>
       </c>
       <c r="C102" s="66" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D102" s="41" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E102" s="13">
         <v>6</v>
@@ -9944,10 +9927,10 @@
         <v>1</v>
       </c>
       <c r="G102" s="41" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="H102" s="41" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="I102" s="41" t="s">
         <v>296</v>
@@ -9963,10 +9946,10 @@
         <v>1000737</v>
       </c>
       <c r="C103" s="66" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D103" s="41" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E103" s="13">
         <v>7</v>
@@ -9975,10 +9958,10 @@
         <v>1</v>
       </c>
       <c r="G103" s="41" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="H103" s="41" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I103" s="41" t="s">
         <v>296</v>
@@ -9994,10 +9977,10 @@
         <v>1000737</v>
       </c>
       <c r="C104" s="66" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D104" s="41" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E104" s="13">
         <v>8</v>
@@ -10006,10 +9989,10 @@
         <v>1</v>
       </c>
       <c r="G104" s="41" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="H104" s="41" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I104" s="41" t="s">
         <v>296</v>
@@ -10025,10 +10008,10 @@
         <v>1000737</v>
       </c>
       <c r="C105" s="66" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D105" s="41" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E105" s="13">
         <v>9</v>
@@ -10037,10 +10020,10 @@
         <v>1</v>
       </c>
       <c r="G105" s="41" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="H105" s="41" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="I105" s="41" t="s">
         <v>238</v>
@@ -11242,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="G148" s="54" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H148" s="54" t="s">
         <v>384</v>
@@ -11472,7 +11455,7 @@
         <v>390</v>
       </c>
       <c r="I156" s="54" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J156" s="54"/>
       <c r="K156" s="54"/>
@@ -11500,7 +11483,7 @@
         <v>353</v>
       </c>
       <c r="I157" s="54" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J157" s="54"/>
       <c r="K157" s="54"/>
@@ -11584,7 +11567,7 @@
         <v>356</v>
       </c>
       <c r="I160" s="54" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J160" s="54"/>
       <c r="K160" s="54"/>
@@ -11821,10 +11804,10 @@
         <v>1000775</v>
       </c>
       <c r="C169" s="64" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D169" s="42" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E169" s="3">
         <v>1</v>
@@ -11833,10 +11816,10 @@
         <v>432</v>
       </c>
       <c r="H169" s="42" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I169" s="42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J169" s="42"/>
       <c r="K169" s="42"/>
@@ -11849,10 +11832,10 @@
         <v>1000775</v>
       </c>
       <c r="C170" s="64" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D170" s="42" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E170" s="3">
         <v>2</v>
@@ -11861,10 +11844,10 @@
         <v>432</v>
       </c>
       <c r="H170" s="42" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I170" s="42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J170" s="42"/>
       <c r="K170" s="42"/>
@@ -11877,22 +11860,22 @@
         <v>1000775</v>
       </c>
       <c r="C171" s="64" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D171" s="42" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E171" s="3">
         <v>3</v>
       </c>
       <c r="G171" s="42" t="s">
-        <v>432</v>
+        <v>747</v>
       </c>
       <c r="H171" s="42" t="s">
-        <v>669</v>
+        <v>288</v>
       </c>
       <c r="I171" s="42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J171" s="42"/>
       <c r="K171" s="42"/>
@@ -11920,7 +11903,7 @@
         <v>436</v>
       </c>
       <c r="I172" s="42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J172" s="42"/>
       <c r="K172" s="42"/>
@@ -11942,13 +11925,13 @@
         <v>5</v>
       </c>
       <c r="G173" s="42" t="s">
-        <v>432</v>
+        <v>295</v>
       </c>
       <c r="H173" s="42" t="s">
-        <v>437</v>
+        <v>648</v>
       </c>
       <c r="I173" s="42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J173" s="42"/>
       <c r="K173" s="42"/>
@@ -11973,10 +11956,10 @@
         <v>432</v>
       </c>
       <c r="H174" s="42" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I174" s="42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J174" s="42"/>
       <c r="K174" s="42"/>
@@ -11998,13 +11981,13 @@
         <v>7</v>
       </c>
       <c r="G175" s="42" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H175" s="42" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I175" s="42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J175" s="42"/>
       <c r="K175" s="42"/>
@@ -12029,10 +12012,10 @@
         <v>434</v>
       </c>
       <c r="H176" s="42" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I176" s="42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J176" s="42"/>
       <c r="K176" s="42"/>
@@ -12057,7 +12040,7 @@
         <v>435</v>
       </c>
       <c r="H177" s="42" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I177" s="42" t="s">
         <v>237</v>
@@ -12076,19 +12059,19 @@
         <v>1</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E178" s="3">
         <v>1</v>
       </c>
       <c r="G178" s="42" t="s">
+        <v>458</v>
+      </c>
+      <c r="H178" s="42" t="s">
         <v>459</v>
       </c>
-      <c r="H178" s="42" t="s">
-        <v>460</v>
-      </c>
       <c r="J178" s="42" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K178" s="42"/>
     </row>
@@ -12103,19 +12086,19 @@
         <v>1</v>
       </c>
       <c r="D179" s="42" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E179" s="3">
         <v>1</v>
       </c>
       <c r="G179" s="42" t="s">
+        <v>458</v>
+      </c>
+      <c r="H179" s="42" t="s">
         <v>459</v>
       </c>
-      <c r="H179" s="42" t="s">
-        <v>460</v>
-      </c>
       <c r="J179" s="42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K179" s="42"/>
     </row>
@@ -12130,19 +12113,19 @@
         <v>1</v>
       </c>
       <c r="D180" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E180" s="3">
         <v>1</v>
       </c>
       <c r="G180" s="42" t="s">
+        <v>458</v>
+      </c>
+      <c r="H180" s="42" t="s">
         <v>459</v>
       </c>
-      <c r="H180" s="42" t="s">
-        <v>460</v>
-      </c>
       <c r="J180" s="42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K180" s="42"/>
     </row>
@@ -12157,19 +12140,19 @@
         <v>1</v>
       </c>
       <c r="D181" s="42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E181" s="3">
         <v>1</v>
       </c>
       <c r="G181" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H181" s="42" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I181" s="42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K181" s="3">
         <v>1</v>
@@ -12186,19 +12169,19 @@
         <v>1</v>
       </c>
       <c r="D182" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E182" s="3">
         <v>1</v>
       </c>
       <c r="G182" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H182" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I182" s="42" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K182" s="3">
         <v>1</v>
@@ -12215,19 +12198,19 @@
         <v>1</v>
       </c>
       <c r="D183" s="42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E183" s="3">
         <v>1</v>
       </c>
       <c r="G183" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H183" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I183" s="42" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K183" s="3">
         <v>1</v>
@@ -12244,19 +12227,19 @@
         <v>1</v>
       </c>
       <c r="D184" s="42" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E184" s="3">
         <v>1</v>
       </c>
       <c r="G184" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H184" s="42" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I184" s="42" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
@@ -12270,19 +12253,19 @@
         <v>1</v>
       </c>
       <c r="D185" s="42" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E185" s="3">
         <v>1</v>
       </c>
       <c r="G185" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H185" s="42" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I185" s="42" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
@@ -12296,19 +12279,19 @@
         <v>5</v>
       </c>
       <c r="D186" s="42" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E186" s="3">
         <v>2</v>
       </c>
       <c r="G186" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H186" s="42" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I186" s="42" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
@@ -12322,16 +12305,16 @@
         <v>10</v>
       </c>
       <c r="D187" s="42" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E187" s="3">
         <v>3</v>
       </c>
       <c r="G187" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H187" s="42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I187" s="42" t="s">
         <v>237</v>
@@ -12348,7 +12331,7 @@
         <v>10000</v>
       </c>
       <c r="D188" s="56" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E188" s="3">
         <v>1</v>
@@ -12357,10 +12340,10 @@
         <v>295</v>
       </c>
       <c r="H188" s="42" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I188" s="42" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
@@ -12374,7 +12357,7 @@
         <v>50000</v>
       </c>
       <c r="D189" s="56" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E189" s="3">
         <v>2</v>
@@ -12383,10 +12366,10 @@
         <v>295</v>
       </c>
       <c r="H189" s="42" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I189" s="42" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
@@ -12400,7 +12383,7 @@
         <v>100000</v>
       </c>
       <c r="D190" s="56" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E190" s="3">
         <v>1</v>
@@ -12409,7 +12392,7 @@
         <v>295</v>
       </c>
       <c r="H190" s="42" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I190" s="42" t="s">
         <v>67</v>
@@ -12426,7 +12409,7 @@
         <v>300000</v>
       </c>
       <c r="D191" s="56" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E191" s="3">
         <v>2</v>
@@ -12435,7 +12418,7 @@
         <v>295</v>
       </c>
       <c r="H191" s="42" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I191" s="42" t="s">
         <v>67</v>
@@ -12452,7 +12435,7 @@
         <v>500000</v>
       </c>
       <c r="D192" s="56" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E192" s="3">
         <v>3</v>
@@ -12461,7 +12444,7 @@
         <v>295</v>
       </c>
       <c r="H192" s="42" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I192" s="42" t="s">
         <v>67</v>
@@ -12478,7 +12461,7 @@
         <v>800000</v>
       </c>
       <c r="D193" s="56" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E193" s="3">
         <v>4</v>
@@ -12487,7 +12470,7 @@
         <v>295</v>
       </c>
       <c r="H193" s="42" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I193" s="42" t="s">
         <v>67</v>
@@ -12504,7 +12487,7 @@
         <v>1000000</v>
       </c>
       <c r="D194" s="56" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E194" s="3">
         <v>5</v>
@@ -12513,7 +12496,7 @@
         <v>295</v>
       </c>
       <c r="H194" s="42" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I194" s="42" t="s">
         <v>67</v>
@@ -12530,7 +12513,7 @@
         <v>2000000</v>
       </c>
       <c r="D195" s="56" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E195" s="3">
         <v>6</v>
@@ -12539,7 +12522,7 @@
         <v>295</v>
       </c>
       <c r="H195" s="42" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I195" s="42" t="s">
         <v>67</v>
@@ -12556,7 +12539,7 @@
         <v>3500000</v>
       </c>
       <c r="D196" s="56" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E196" s="3">
         <v>7</v>
@@ -12565,7 +12548,7 @@
         <v>295</v>
       </c>
       <c r="H196" s="42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I196" s="42" t="s">
         <v>67</v>
@@ -12582,7 +12565,7 @@
         <v>9000000</v>
       </c>
       <c r="D197" s="56" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E197" s="3">
         <v>8</v>
@@ -12591,7 +12574,7 @@
         <v>295</v>
       </c>
       <c r="H197" s="42" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I197" s="42" t="s">
         <v>67</v>
@@ -12608,7 +12591,7 @@
         <v>18000000</v>
       </c>
       <c r="D198" s="56" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E198" s="3">
         <v>9</v>
@@ -12617,7 +12600,7 @@
         <v>295</v>
       </c>
       <c r="H198" s="42" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I198" s="42" t="s">
         <v>67</v>
@@ -12634,7 +12617,7 @@
         <v>30000000</v>
       </c>
       <c r="D199" s="56" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E199" s="3">
         <v>10</v>
@@ -12643,7 +12626,7 @@
         <v>295</v>
       </c>
       <c r="H199" s="42" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I199" s="42" t="s">
         <v>67</v>
@@ -12660,7 +12643,7 @@
         <v>50000000</v>
       </c>
       <c r="D200" s="56" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E200" s="3">
         <v>11</v>
@@ -12669,7 +12652,7 @@
         <v>295</v>
       </c>
       <c r="H200" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I200" s="42" t="s">
         <v>67</v>
@@ -12686,7 +12669,7 @@
         <v>90000000</v>
       </c>
       <c r="D201" s="56" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E201" s="3">
         <v>12</v>
@@ -12695,7 +12678,7 @@
         <v>295</v>
       </c>
       <c r="H201" s="42" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I201" s="42" t="s">
         <v>67</v>
@@ -12712,7 +12695,7 @@
         <v>150000000</v>
       </c>
       <c r="D202" s="56" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E202" s="3">
         <v>13</v>
@@ -12721,10 +12704,10 @@
         <v>295</v>
       </c>
       <c r="H202" s="42" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I202" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
@@ -12738,7 +12721,7 @@
         <v>250000000</v>
       </c>
       <c r="D203" s="56" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E203" s="3">
         <v>14</v>
@@ -12747,10 +12730,10 @@
         <v>295</v>
       </c>
       <c r="H203" s="42" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I203" s="42" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -12764,7 +12747,7 @@
         <v>450000000</v>
       </c>
       <c r="D204" s="56" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E204" s="3">
         <v>15</v>
@@ -12773,10 +12756,10 @@
         <v>295</v>
       </c>
       <c r="H204" s="42" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I204" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -12790,7 +12773,7 @@
         <v>750000000</v>
       </c>
       <c r="D205" s="56" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E205" s="3">
         <v>16</v>
@@ -12799,10 +12782,10 @@
         <v>295</v>
       </c>
       <c r="H205" s="42" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I205" s="42" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
@@ -12816,7 +12799,7 @@
         <v>1000000000</v>
       </c>
       <c r="D206" s="56" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E206" s="3">
         <v>17</v>
@@ -12825,10 +12808,10 @@
         <v>295</v>
       </c>
       <c r="H206" s="42" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I206" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
@@ -12842,7 +12825,7 @@
         <v>1500000000</v>
       </c>
       <c r="D207" s="56" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E207" s="3">
         <v>18</v>
@@ -12851,10 +12834,10 @@
         <v>295</v>
       </c>
       <c r="H207" s="42" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I207" s="42" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
@@ -12868,7 +12851,7 @@
         <v>3000000000</v>
       </c>
       <c r="D208" s="56" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E208" s="3">
         <v>19</v>
@@ -12877,10 +12860,10 @@
         <v>295</v>
       </c>
       <c r="H208" s="42" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I208" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
@@ -12894,7 +12877,7 @@
         <v>5000000000</v>
       </c>
       <c r="D209" s="56" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E209" s="3">
         <v>20</v>
@@ -12903,10 +12886,10 @@
         <v>295</v>
       </c>
       <c r="H209" s="42" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I209" s="42" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -12920,7 +12903,7 @@
         <v>10000000000</v>
       </c>
       <c r="D210" s="56" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E210" s="3">
         <v>21</v>
@@ -12929,10 +12912,10 @@
         <v>295</v>
       </c>
       <c r="H210" s="42" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I210" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -12946,7 +12929,7 @@
         <v>30000000000</v>
       </c>
       <c r="D211" s="56" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E211" s="3">
         <v>22</v>
@@ -12955,10 +12938,10 @@
         <v>295</v>
       </c>
       <c r="H211" s="42" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I211" s="42" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -12972,7 +12955,7 @@
         <v>60000000000</v>
       </c>
       <c r="D212" s="56" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E212" s="3">
         <v>23</v>
@@ -12981,10 +12964,10 @@
         <v>295</v>
       </c>
       <c r="H212" s="42" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I212" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
@@ -12995,10 +12978,10 @@
         <v>30034</v>
       </c>
       <c r="C213" s="64" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D213" s="56" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E213" s="3">
         <v>24</v>
@@ -13007,10 +12990,10 @@
         <v>295</v>
       </c>
       <c r="H213" s="42" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I213" s="42" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -13021,10 +13004,10 @@
         <v>30034</v>
       </c>
       <c r="C214" s="64" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D214" s="56" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E214" s="3">
         <v>25</v>
@@ -13033,10 +13016,10 @@
         <v>295</v>
       </c>
       <c r="H214" s="42" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I214" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -13047,10 +13030,10 @@
         <v>30034</v>
       </c>
       <c r="C215" s="64" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D215" s="56" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E215" s="3">
         <v>26</v>
@@ -13059,10 +13042,10 @@
         <v>295</v>
       </c>
       <c r="H215" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I215" s="42" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
@@ -13073,10 +13056,10 @@
         <v>30035</v>
       </c>
       <c r="C216" s="64" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D216" s="56" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E216" s="3">
         <v>1</v>
@@ -13088,10 +13071,10 @@
         <v>295</v>
       </c>
       <c r="H216" s="42" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I216" s="42" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
@@ -13102,10 +13085,10 @@
         <v>30035</v>
       </c>
       <c r="C217" s="64" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D217" s="56" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E217" s="3">
         <v>2</v>
@@ -13117,10 +13100,10 @@
         <v>295</v>
       </c>
       <c r="H217" s="42" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I217" s="42" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
@@ -13131,10 +13114,10 @@
         <v>30035</v>
       </c>
       <c r="C218" s="64" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D218" s="56" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E218" s="3">
         <v>3</v>
@@ -13146,10 +13129,10 @@
         <v>295</v>
       </c>
       <c r="H218" s="42" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I218" s="42" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
@@ -13160,10 +13143,10 @@
         <v>30035</v>
       </c>
       <c r="C219" s="64" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D219" s="56" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E219" s="3">
         <v>4</v>
@@ -13175,10 +13158,10 @@
         <v>295</v>
       </c>
       <c r="H219" s="42" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I219" s="42" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -13189,10 +13172,10 @@
         <v>30035</v>
       </c>
       <c r="C220" s="64" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D220" s="56" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E220" s="3">
         <v>5</v>
@@ -13204,10 +13187,10 @@
         <v>295</v>
       </c>
       <c r="H220" s="42" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I220" s="42" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -13218,10 +13201,10 @@
         <v>30035</v>
       </c>
       <c r="C221" s="64" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D221" s="56" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E221" s="3">
         <v>6</v>
@@ -13233,10 +13216,10 @@
         <v>295</v>
       </c>
       <c r="H221" s="42" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I221" s="42" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
@@ -13247,10 +13230,10 @@
         <v>30035</v>
       </c>
       <c r="C222" s="64" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D222" s="56" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E222" s="3">
         <v>7</v>
@@ -13262,10 +13245,10 @@
         <v>295</v>
       </c>
       <c r="H222" s="42" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I222" s="42" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
@@ -13276,10 +13259,10 @@
         <v>30035</v>
       </c>
       <c r="C223" s="64" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D223" s="56" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E223" s="3">
         <v>8</v>
@@ -13291,10 +13274,10 @@
         <v>295</v>
       </c>
       <c r="H223" s="42" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I223" s="42" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
@@ -13305,10 +13288,10 @@
         <v>30035</v>
       </c>
       <c r="C224" s="64" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D224" s="56" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E224" s="3">
         <v>9</v>
@@ -13320,10 +13303,10 @@
         <v>295</v>
       </c>
       <c r="H224" s="42" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I224" s="42" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
@@ -13334,10 +13317,10 @@
         <v>30035</v>
       </c>
       <c r="C225" s="64" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D225" s="56" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E225" s="3">
         <v>10</v>
@@ -13349,10 +13332,10 @@
         <v>295</v>
       </c>
       <c r="H225" s="42" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I225" s="42" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
@@ -13363,10 +13346,10 @@
         <v>30035</v>
       </c>
       <c r="C226" s="64" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D226" s="56" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E226" s="3">
         <v>11</v>
@@ -13378,10 +13361,10 @@
         <v>295</v>
       </c>
       <c r="H226" s="42" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I226" s="42" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
@@ -13392,10 +13375,10 @@
         <v>30035</v>
       </c>
       <c r="C227" s="64" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D227" s="56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E227" s="3">
         <v>12</v>
@@ -13407,10 +13390,10 @@
         <v>295</v>
       </c>
       <c r="H227" s="42" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I227" s="42" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
@@ -13421,10 +13404,10 @@
         <v>30035</v>
       </c>
       <c r="C228" s="64" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D228" s="56" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E228" s="3">
         <v>13</v>
@@ -13436,10 +13419,10 @@
         <v>295</v>
       </c>
       <c r="H228" s="42" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I228" s="42" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
@@ -13450,10 +13433,10 @@
         <v>30035</v>
       </c>
       <c r="C229" s="64" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D229" s="56" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E229" s="3">
         <v>14</v>
@@ -13465,10 +13448,10 @@
         <v>295</v>
       </c>
       <c r="H229" s="42" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I229" s="42" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -13479,10 +13462,10 @@
         <v>30035</v>
       </c>
       <c r="C230" s="64" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D230" s="56" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E230" s="3">
         <v>15</v>
@@ -13491,13 +13474,13 @@
         <v>1</v>
       </c>
       <c r="G230" s="42" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H230" s="42" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I230" s="42" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
@@ -13508,7 +13491,7 @@
         <v>1000788</v>
       </c>
       <c r="C231" s="64" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D231" s="42" t="s">
         <v>277</v>
@@ -13520,7 +13503,7 @@
         <v>311</v>
       </c>
       <c r="H231" s="42" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I231" s="3" t="s">
         <v>339</v>
@@ -13534,10 +13517,10 @@
         <v>1000789</v>
       </c>
       <c r="C232" s="64" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D232" s="42" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E232" s="3">
         <v>1</v>
@@ -13546,7 +13529,7 @@
         <v>311</v>
       </c>
       <c r="H232" s="42" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I232" s="42" t="s">
         <v>272</v>
@@ -13560,10 +13543,10 @@
         <v>1000790</v>
       </c>
       <c r="C233" s="64" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D233" s="42" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E233" s="3">
         <v>1</v>
@@ -13572,10 +13555,10 @@
         <v>311</v>
       </c>
       <c r="H233" s="42" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I233" s="42" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
@@ -13586,10 +13569,10 @@
         <v>1000790</v>
       </c>
       <c r="C234" s="64" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D234" s="42" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E234" s="3">
         <v>2</v>
@@ -13598,10 +13581,10 @@
         <v>311</v>
       </c>
       <c r="H234" s="42" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I234" s="42" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
@@ -13612,10 +13595,10 @@
         <v>1000790</v>
       </c>
       <c r="C235" s="64" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D235" s="42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E235" s="3">
         <v>3</v>
@@ -13624,10 +13607,10 @@
         <v>311</v>
       </c>
       <c r="H235" s="42" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I235" s="42" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
@@ -13638,10 +13621,10 @@
         <v>1000790</v>
       </c>
       <c r="C236" s="64" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D236" s="42" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E236" s="3">
         <v>4</v>
@@ -13650,10 +13633,10 @@
         <v>311</v>
       </c>
       <c r="H236" s="42" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I236" s="42" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
@@ -13664,10 +13647,10 @@
         <v>1000791</v>
       </c>
       <c r="C237" s="64" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D237" s="42" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E237" s="3">
         <v>1</v>
@@ -13676,10 +13659,10 @@
         <v>311</v>
       </c>
       <c r="H237" s="42" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I237" s="42" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
@@ -13690,10 +13673,10 @@
         <v>1000791</v>
       </c>
       <c r="C238" s="64" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D238" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E238" s="3">
         <v>2</v>
@@ -13702,10 +13685,10 @@
         <v>311</v>
       </c>
       <c r="H238" s="42" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I238" s="42" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
@@ -13716,10 +13699,10 @@
         <v>1000791</v>
       </c>
       <c r="C239" s="64" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D239" s="42" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E239" s="3">
         <v>3</v>
@@ -13728,10 +13711,10 @@
         <v>311</v>
       </c>
       <c r="H239" s="42" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I239" s="42" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
@@ -13742,10 +13725,10 @@
         <v>1000791</v>
       </c>
       <c r="C240" s="64" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D240" s="42" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E240" s="3">
         <v>4</v>
@@ -13754,10 +13737,10 @@
         <v>311</v>
       </c>
       <c r="H240" s="42" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I240" s="42" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
@@ -13768,10 +13751,10 @@
         <v>1000792</v>
       </c>
       <c r="C241" s="64" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D241" s="42" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E241" s="3">
         <v>1</v>
@@ -13780,10 +13763,10 @@
         <v>295</v>
       </c>
       <c r="H241" s="42" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I241" s="42" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -13794,7 +13777,7 @@
         <v>1000793</v>
       </c>
       <c r="C242" s="64" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D242" s="42" t="s">
         <v>277</v>
@@ -13806,7 +13789,7 @@
         <v>311</v>
       </c>
       <c r="H242" s="42" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I242" s="3" t="s">
         <v>339</v>
@@ -13820,10 +13803,10 @@
         <v>1000794</v>
       </c>
       <c r="C243" s="64" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D243" s="42" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E243" s="3">
         <v>1</v>
@@ -13832,7 +13815,7 @@
         <v>311</v>
       </c>
       <c r="H243" s="42" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I243" s="42" t="s">
         <v>272</v>
@@ -13846,10 +13829,10 @@
         <v>1000795</v>
       </c>
       <c r="C244" s="64" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D244" s="42" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E244" s="3">
         <v>1</v>
@@ -13858,10 +13841,10 @@
         <v>311</v>
       </c>
       <c r="H244" s="42" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I244" s="42" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
@@ -13872,10 +13855,10 @@
         <v>1000795</v>
       </c>
       <c r="C245" s="64" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D245" s="42" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E245" s="3">
         <v>2</v>
@@ -13884,10 +13867,10 @@
         <v>311</v>
       </c>
       <c r="H245" s="42" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I245" s="42" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
@@ -13898,10 +13881,10 @@
         <v>1000795</v>
       </c>
       <c r="C246" s="64" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D246" s="42" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E246" s="3">
         <v>3</v>
@@ -13910,10 +13893,10 @@
         <v>311</v>
       </c>
       <c r="H246" s="42" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I246" s="42" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -13924,10 +13907,10 @@
         <v>1000795</v>
       </c>
       <c r="C247" s="64" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D247" s="42" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E247" s="3">
         <v>4</v>
@@ -13936,10 +13919,10 @@
         <v>311</v>
       </c>
       <c r="H247" s="42" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I247" s="42" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
@@ -13950,10 +13933,10 @@
         <v>1000796</v>
       </c>
       <c r="C248" s="64" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D248" s="42" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E248" s="3">
         <v>1</v>
@@ -13962,10 +13945,10 @@
         <v>311</v>
       </c>
       <c r="H248" s="42" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I248" s="42" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
@@ -13976,10 +13959,10 @@
         <v>1000796</v>
       </c>
       <c r="C249" s="64" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D249" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E249" s="3">
         <v>2</v>
@@ -13988,10 +13971,10 @@
         <v>311</v>
       </c>
       <c r="H249" s="42" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I249" s="42" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
@@ -14002,10 +13985,10 @@
         <v>1000796</v>
       </c>
       <c r="C250" s="64" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D250" s="42" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E250" s="3">
         <v>3</v>
@@ -14014,10 +13997,10 @@
         <v>311</v>
       </c>
       <c r="H250" s="42" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I250" s="42" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
@@ -14028,10 +14011,10 @@
         <v>1000796</v>
       </c>
       <c r="C251" s="64" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D251" s="42" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E251" s="3">
         <v>4</v>
@@ -14040,10 +14023,10 @@
         <v>311</v>
       </c>
       <c r="H251" s="42" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I251" s="42" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
@@ -14054,7 +14037,7 @@
         <v>1000797</v>
       </c>
       <c r="C252" s="64" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D252" s="42" t="s">
         <v>202</v>
@@ -14066,10 +14049,10 @@
         <v>295</v>
       </c>
       <c r="H252" s="42" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I252" s="42" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
@@ -14080,7 +14063,7 @@
         <v>1000801</v>
       </c>
       <c r="C253" s="64" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D253" s="42" t="s">
         <v>276</v>
@@ -14092,7 +14075,7 @@
         <v>311</v>
       </c>
       <c r="H253" s="42" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="I253" s="3" t="s">
         <v>270</v>
@@ -14106,7 +14089,7 @@
         <v>1000802</v>
       </c>
       <c r="C254" s="64" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D254" s="42" t="s">
         <v>252</v>
@@ -14115,10 +14098,10 @@
         <v>1</v>
       </c>
       <c r="G254" s="42" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="H254" s="42" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="I254" s="42" t="s">
         <v>272</v>
@@ -14132,10 +14115,10 @@
         <v>1000803</v>
       </c>
       <c r="C255" s="64" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D255" s="42" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E255" s="3">
         <v>1</v>
@@ -14144,7 +14127,7 @@
         <v>311</v>
       </c>
       <c r="H255" s="42" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="I255" s="42" t="s">
         <v>234</v>
@@ -14158,10 +14141,10 @@
         <v>1000803</v>
       </c>
       <c r="C256" s="64" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D256" s="42" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E256" s="3">
         <v>2</v>
@@ -14170,7 +14153,7 @@
         <v>311</v>
       </c>
       <c r="H256" s="42" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="I256" s="42" t="s">
         <v>234</v>
@@ -14184,10 +14167,10 @@
         <v>1000803</v>
       </c>
       <c r="C257" s="64" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D257" s="42" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E257" s="3">
         <v>3</v>
@@ -14196,7 +14179,7 @@
         <v>311</v>
       </c>
       <c r="H257" s="42" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="I257" s="42" t="s">
         <v>234</v>
@@ -14210,10 +14193,10 @@
         <v>1000803</v>
       </c>
       <c r="C258" s="64" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D258" s="42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E258" s="3">
         <v>4</v>
@@ -14222,7 +14205,7 @@
         <v>311</v>
       </c>
       <c r="H258" s="42" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="I258" s="42" t="s">
         <v>234</v>
@@ -14236,10 +14219,10 @@
         <v>1000803</v>
       </c>
       <c r="C259" s="64" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D259" s="42" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E259" s="3">
         <v>5</v>
@@ -14248,7 +14231,7 @@
         <v>311</v>
       </c>
       <c r="H259" s="42" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="I259" s="42" t="s">
         <v>234</v>
@@ -14262,25 +14245,25 @@
         <v>1000803</v>
       </c>
       <c r="C260" s="64" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D260" s="42" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E260" s="3">
         <v>6</v>
       </c>
       <c r="G260" s="42" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H260" s="42" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="I260" s="42" t="s">
         <v>234</v>
       </c>
       <c r="L260" s="42" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -14291,25 +14274,25 @@
         <v>1000804</v>
       </c>
       <c r="C261" s="64" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D261" s="42" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E261" s="3">
         <v>1</v>
       </c>
       <c r="G261" s="42" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H261" s="42" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I261" s="42" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="L261" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -14320,7 +14303,7 @@
         <v>1000805</v>
       </c>
       <c r="C262" s="64" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D262" s="42" t="s">
         <v>276</v>
@@ -14332,7 +14315,7 @@
         <v>311</v>
       </c>
       <c r="H262" s="42" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="I262" s="3" t="s">
         <v>270</v>
@@ -14346,7 +14329,7 @@
         <v>1000806</v>
       </c>
       <c r="C263" s="64" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D263" s="42" t="s">
         <v>252</v>
@@ -14358,7 +14341,7 @@
         <v>311</v>
       </c>
       <c r="H263" s="42" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="I263" s="42" t="s">
         <v>272</v>
@@ -14372,10 +14355,10 @@
         <v>1000807</v>
       </c>
       <c r="C264" s="64" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D264" s="42" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E264" s="3">
         <v>1</v>
@@ -14384,7 +14367,7 @@
         <v>311</v>
       </c>
       <c r="H264" s="42" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="I264" s="42" t="s">
         <v>237</v>
@@ -14398,10 +14381,10 @@
         <v>1000807</v>
       </c>
       <c r="C265" s="64" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D265" s="42" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E265" s="3">
         <v>2</v>
@@ -14410,7 +14393,7 @@
         <v>311</v>
       </c>
       <c r="H265" s="42" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="I265" s="42" t="s">
         <v>237</v>
@@ -14424,10 +14407,10 @@
         <v>1000807</v>
       </c>
       <c r="C266" s="64" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D266" s="42" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E266" s="3">
         <v>3</v>
@@ -14436,7 +14419,7 @@
         <v>311</v>
       </c>
       <c r="H266" s="42" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="I266" s="42" t="s">
         <v>237</v>
@@ -14450,10 +14433,10 @@
         <v>1000807</v>
       </c>
       <c r="C267" s="64" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D267" s="42" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E267" s="3">
         <v>4</v>
@@ -14462,7 +14445,7 @@
         <v>311</v>
       </c>
       <c r="H267" s="42" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="I267" s="42" t="s">
         <v>237</v>
@@ -14476,10 +14459,10 @@
         <v>1000807</v>
       </c>
       <c r="C268" s="64" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D268" s="42" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E268" s="3">
         <v>5</v>
@@ -14488,7 +14471,7 @@
         <v>311</v>
       </c>
       <c r="H268" s="42" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="I268" s="42" t="s">
         <v>237</v>
@@ -14502,25 +14485,25 @@
         <v>1000807</v>
       </c>
       <c r="C269" s="64" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D269" s="42" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E269" s="3">
         <v>6</v>
       </c>
       <c r="G269" s="42" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H269" s="42" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="I269" s="42" t="s">
         <v>237</v>
       </c>
       <c r="L269" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
@@ -14531,25 +14514,25 @@
         <v>1000808</v>
       </c>
       <c r="C270" s="64" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D270" s="42" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E270" s="3">
         <v>1</v>
       </c>
       <c r="G270" s="42" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H270" s="42" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I270" s="42" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L270" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="271" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -14560,7 +14543,7 @@
         <v>1000737</v>
       </c>
       <c r="C271" s="66" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D271" s="41" t="s">
         <v>294</v>
@@ -14572,10 +14555,10 @@
         <v>1</v>
       </c>
       <c r="G271" s="41" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="H271" s="41" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I271" s="41" t="s">
         <v>238</v>
